--- a/IPL/Gujarat Titans/Shubman Gill.xlsx
+++ b/IPL/Gujarat Titans/Shubman Gill.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D2" t="str">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
-        <v>25.00</v>
+        <v>184.31</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>May 19 2022</v>
+        <v>May 07 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C3" t="str">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D3" t="str">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E3" t="str">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>128.57</v>
+        <v>174.13</v>
       </c>
       <c r="H3" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J3" t="str">
-        <v>May 10 2022</v>
+        <v>May 15 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,28 +515,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C4" t="str">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D4" t="str">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>182.60</v>
+        <v>195.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J4" t="str">
-        <v>April 02 2022</v>
+        <v>May 28 - 29 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -541,28 +550,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C5" t="str">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D5" t="str">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E5" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" t="str">
-        <v>92.85</v>
+        <v>215.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>April 14 2022</v>
+        <v>May 26 2023</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -573,28 +585,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C6" t="str">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D6" t="str">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E6" t="str">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
-        <v>0</v>
-      </c>
       <c r="G6" t="str">
-        <v>140.00</v>
+        <v>132.35</v>
       </c>
       <c r="H6" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J6" t="str">
-        <v>April 23 2022</v>
+        <v>April 16 2023</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -605,28 +620,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C7" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>77.77</v>
+        <v>0.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Lucknow</v>
       </c>
       <c r="J7" t="str">
-        <v>April 11 2022</v>
+        <v>April 22 2023</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -637,28 +655,31 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C8" t="str">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D8" t="str">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>150.00</v>
+        <v>125.80</v>
       </c>
       <c r="H8" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J8" t="str">
-        <v>May 03 2022</v>
+        <v>April 09 2023</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -669,246 +690,36 @@
         <v>Shubman Gill</v>
       </c>
       <c r="C9" t="str">
+        <v>56</v>
+      </c>
+      <c r="D9" t="str">
+        <v>34</v>
+      </c>
+      <c r="E9" t="str">
+        <v>7</v>
+      </c>
+      <c r="F9" t="str">
         <v>1</v>
       </c>
-      <c r="D9" t="str">
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
-        <v>0</v>
-      </c>
-      <c r="F9" t="str">
-        <v>0</v>
-      </c>
       <c r="G9" t="str">
-        <v>25.00</v>
+        <v>164.70</v>
       </c>
       <c r="H9" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I9" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J9" t="str">
-        <v>May 19 2022</v>
+        <v>April 25 2023</v>
       </c>
       <c r="K9" t="str">
-        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C10" t="str">
-        <v>84</v>
-      </c>
-      <c r="D10" t="str">
-        <v>46</v>
-      </c>
-      <c r="E10" t="str">
-        <v>6</v>
-      </c>
-      <c r="F10" t="str">
-        <v>4</v>
-      </c>
-      <c r="G10" t="str">
-        <v>182.60</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Pune</v>
-      </c>
-      <c r="J10" t="str">
-        <v>April 02 2022</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Titans won by 14 runs</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C11" t="str">
-        <v>9</v>
-      </c>
-      <c r="D11" t="str">
-        <v>6</v>
-      </c>
-      <c r="E11" t="str">
-        <v>2</v>
-      </c>
-      <c r="F11" t="str">
-        <v>0</v>
-      </c>
-      <c r="G11" t="str">
-        <v>150.00</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Punjab Kings</v>
-      </c>
-      <c r="I11" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J11" t="str">
-        <v>May 03 2022</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Punjab Kings won by 8 wickets (with 24 balls remaining)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C12" t="str">
-        <v>7</v>
-      </c>
-      <c r="D12" t="str">
-        <v>9</v>
-      </c>
-      <c r="E12" t="str">
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
-        <v>77.77</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="I12" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J12" t="str">
-        <v>April 11 2022</v>
-      </c>
-      <c r="K12" t="str">
-        <v>Sunrisers won by 8 wickets (with 5 balls remaining)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C13" t="str">
-        <v>13</v>
-      </c>
-      <c r="D13" t="str">
-        <v>14</v>
-      </c>
-      <c r="E13" t="str">
-        <v>2</v>
-      </c>
-      <c r="F13" t="str">
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
-        <v>92.85</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Rajasthan Royals</v>
-      </c>
-      <c r="I13" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J13" t="str">
-        <v>April 14 2022</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Titans won by 37 runs</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C14" t="str">
-        <v>7</v>
-      </c>
-      <c r="D14" t="str">
-        <v>5</v>
-      </c>
-      <c r="E14" t="str">
-        <v>1</v>
-      </c>
-      <c r="F14" t="str">
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
-        <v>140.00</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Kolkata Knight Riders</v>
-      </c>
-      <c r="I14" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J14" t="str">
-        <v>April 23 2022</v>
-      </c>
-      <c r="K14" t="str">
-        <v>Titans won by 8 runs</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Shubman Gill</v>
-      </c>
-      <c r="C15" t="str">
-        <v>63</v>
-      </c>
-      <c r="D15" t="str">
-        <v>49</v>
-      </c>
-      <c r="E15" t="str">
-        <v>7</v>
-      </c>
-      <c r="F15" t="str">
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
-        <v>128.57</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Lucknow Super Giants</v>
-      </c>
-      <c r="I15" t="str">
-        <v>Pune</v>
-      </c>
-      <c r="J15" t="str">
-        <v>May 10 2022</v>
-      </c>
-      <c r="K15" t="str">
-        <v>Titans won by 62 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>